--- a/src/main/webapp/template/건물관리양식.xlsx
+++ b/src/main/webapp/template/건물관리양식.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ctns/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CTNS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E961BD2-AB87-4142-9697-54FAD29BF0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2555F1D-198B-4418-988F-BB2CF5626C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12580" yWindow="500" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="건물업로드양식" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
   <si>
     <t>건물명</t>
   </si>
@@ -68,9 +68,6 @@
     <t>인천광역시</t>
   </si>
   <si>
-    <t>부가세포함여부</t>
-  </si>
-  <si>
     <t>대전광역시</t>
   </si>
   <si>
@@ -168,59 +165,115 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>A건물 동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B건물 동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C건물 동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>창원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>창원팀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김해팀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>청춘클린</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의창구 평산로 23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세금계산서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>N</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>A건물 동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B건물 동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C건물 동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>창원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김해</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>창원팀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김해팀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍길동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아무개</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>청춘클린</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0000100004</t>
+  </si>
+  <si>
+    <t>B0000100005</t>
   </si>
   <si>
     <t>의창구 평산로 23</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-06-22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>01012345678</t>
+  </si>
+  <si>
+    <t>세금계산서코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>종류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현금영수증</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자세금계산서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세금계산서(부가세포함)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세금계산서(부가세불포함)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당없음</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -231,7 +284,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* \-_-;_-@_-"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -265,7 +318,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -288,6 +341,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -295,7 +359,7 @@
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -333,10 +397,22 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Excel Built-in Comma [0]" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="Excel Built-in Comma [0]" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -840,45 +916,45 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="O6" sqref="O1:P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18" style="10" customWidth="1"/>
     <col min="2" max="2" width="11" style="10" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11" style="10" customWidth="1"/>
     <col min="6" max="6" width="8.5" style="10"/>
-    <col min="7" max="7" width="53.1640625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="53.19921875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="12.69921875" style="10" customWidth="1"/>
     <col min="9" max="9" width="11" style="10" customWidth="1"/>
-    <col min="10" max="10" width="26.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.1640625" style="10" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="26.796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.19921875" style="10" customWidth="1"/>
+    <col min="12" max="12" width="12.69921875" style="10" customWidth="1"/>
     <col min="13" max="14" width="11" style="10" customWidth="1"/>
     <col min="15" max="15" width="8.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.1640625" style="14" customWidth="1"/>
-    <col min="18" max="18" width="11.1640625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="10.796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.19921875" style="14" customWidth="1"/>
+    <col min="18" max="18" width="11.19921875" style="10" customWidth="1"/>
     <col min="19" max="19" width="8.5" style="10"/>
-    <col min="20" max="20" width="10.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.796875" style="14" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="8.5" style="14"/>
     <col min="22" max="16384" width="8.5" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="4" customFormat="1">
+    <row r="1" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -887,31 +963,31 @@
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>4</v>
@@ -920,13 +996,13 @@
         <v>12</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T1" s="12" t="s">
         <v>3</v>
@@ -938,101 +1014,101 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="18">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="5">
         <v>48</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="G2" s="5">
         <v>2</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L2" s="8">
         <v>90000</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="5" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S2" s="5">
         <v>2</v>
       </c>
       <c r="T2" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U2" s="13"/>
       <c r="V2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="18">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="5">
         <v>48</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="G3" s="5">
         <v>2</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="K3" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L3" s="8">
         <v>50000</v>
@@ -1041,62 +1117,62 @@
         <v>5000</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="O3" s="5"/>
       <c r="P3" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S3" s="5">
         <v>2</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U3" s="13"/>
       <c r="V3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="5">
         <v>48</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" s="5">
         <v>2</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L4" s="8">
         <v>50000</v>
@@ -1107,22 +1183,144 @@
       </c>
       <c r="O4" s="5"/>
       <c r="P4" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q4" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S4" s="5">
         <v>2</v>
       </c>
       <c r="T4" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U4" s="13"/>
       <c r="V4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="5">
+        <v>48</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" s="8">
+        <v>50000</v>
+      </c>
+      <c r="M5" s="9"/>
+      <c r="N5" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="S5" s="5">
+        <v>2</v>
+      </c>
+      <c r="T5" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U5" s="13"/>
+      <c r="V5" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="5">
+        <v>48</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" s="8">
+        <v>50000</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S6" s="5">
+        <v>2</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="U6" s="13"/>
+      <c r="V6" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1136,67 +1334,105 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.19921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="D1" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="D2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>28</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>29</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="D5" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>15</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>41</v>
       </c>
@@ -1204,60 +1440,60 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>43</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>44</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>45</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>46</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>47</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>48</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>50</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
